--- a/Test5.xlsx
+++ b/Test5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/MetadataProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FB2B14-FFCA-D248-AACC-1B748289FFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6881678-D07F-494D-A46C-1147FD4DE2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14280" yWindow="620" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GO_Technical metadata" sheetId="2" r:id="rId1"/>
@@ -3474,12 +3474,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7782,13 +7784,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -7796,10 +7798,10 @@
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="49.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="44.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="49.5" customWidth="1"/>
+    <col min="11" max="11" width="44.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.5" customWidth="1"/>
+    <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="10.5" style="5" customWidth="1"/>
     <col min="15" max="15" width="9.1640625" style="5"/>
     <col min="16" max="16" width="10.5" customWidth="1"/>
@@ -7843,41 +7845,41 @@
     <col min="57" max="57" width="25.6640625" customWidth="1"/>
     <col min="58" max="58" width="18.83203125" customWidth="1"/>
     <col min="59" max="59" width="16.6640625" customWidth="1"/>
-    <col min="60" max="60" width="26.33203125" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="23.33203125" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="16.6640625" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="13.1640625" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="26.33203125" customWidth="1"/>
+    <col min="61" max="61" width="23.33203125" customWidth="1"/>
+    <col min="62" max="62" width="16.6640625" customWidth="1"/>
+    <col min="63" max="63" width="13.33203125" customWidth="1"/>
+    <col min="64" max="64" width="13.1640625" customWidth="1"/>
+    <col min="65" max="65" width="8.6640625" customWidth="1"/>
     <col min="66" max="66" width="18.5" customWidth="1"/>
     <col min="67" max="67" width="16.5" customWidth="1"/>
-    <col min="68" max="68" width="15.83203125" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="15" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="15.83203125" customWidth="1"/>
+    <col min="69" max="69" width="13.33203125" customWidth="1"/>
+    <col min="70" max="70" width="15" customWidth="1"/>
+    <col min="71" max="71" width="10.1640625" customWidth="1"/>
     <col min="72" max="72" width="17.6640625" customWidth="1"/>
     <col min="73" max="73" width="14.33203125" customWidth="1"/>
     <col min="74" max="74" width="17" customWidth="1"/>
     <col min="75" max="75" width="19.83203125" customWidth="1"/>
-    <col min="76" max="76" width="21.6640625" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="17.1640625" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="21.6640625" customWidth="1"/>
+    <col min="77" max="77" width="17.1640625" customWidth="1"/>
     <col min="78" max="78" width="27.83203125" customWidth="1"/>
     <col min="79" max="79" width="28.1640625" customWidth="1"/>
-    <col min="80" max="80" width="24.6640625" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="20.5" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="18.5" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="20.5" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="20" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="26.5" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="16.6640625" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="17" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="17.83203125" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="24.6640625" customWidth="1"/>
+    <col min="81" max="81" width="20.5" customWidth="1"/>
+    <col min="82" max="82" width="11.33203125" customWidth="1"/>
+    <col min="83" max="83" width="18.5" customWidth="1"/>
+    <col min="84" max="84" width="20.5" customWidth="1"/>
+    <col min="85" max="85" width="20.6640625" customWidth="1"/>
+    <col min="86" max="86" width="13.6640625" customWidth="1"/>
+    <col min="87" max="87" width="12.1640625" customWidth="1"/>
+    <col min="88" max="88" width="10.6640625" customWidth="1"/>
+    <col min="89" max="89" width="8.83203125" customWidth="1"/>
+    <col min="90" max="90" width="20" customWidth="1"/>
+    <col min="91" max="91" width="26.5" customWidth="1"/>
+    <col min="92" max="92" width="16.6640625" customWidth="1"/>
+    <col min="93" max="93" width="17" customWidth="1"/>
+    <col min="94" max="94" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -22252,6 +22254,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38100cf0-3862-4f5e-94af-ec17e31f9b9a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="92ee2257-ef7d-4b2b-9cba-e98e4e350c54" xsi:nil="true"/>
+    <SharedWithUsers xmlns="92ee2257-ef7d-4b2b-9cba-e98e4e350c54">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008BA4CAFB0A082A44B6D80CF2B204068A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="270c7dcce269e10cf1443fb796af7471">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38100cf0-3862-4f5e-94af-ec17e31f9b9a" xmlns:ns3="92ee2257-ef7d-4b2b-9cba-e98e4e350c54" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e0b24ceb7a277a3855adc1a92f635aae" ns2:_="" ns3:_="">
     <xsd:import namespace="38100cf0-3862-4f5e-94af-ec17e31f9b9a"/>
@@ -22474,34 +22503,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38100cf0-3862-4f5e-94af-ec17e31f9b9a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="92ee2257-ef7d-4b2b-9cba-e98e4e350c54" xsi:nil="true"/>
-    <SharedWithUsers xmlns="92ee2257-ef7d-4b2b-9cba-e98e4e350c54">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7084B3EE-4F2B-431A-999E-5DE076E5371E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF7C446-AC1E-450D-BFFA-6B39FB292973}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38100cf0-3862-4f5e-94af-ec17e31f9b9a"/>
+    <ds:schemaRef ds:uri="92ee2257-ef7d-4b2b-9cba-e98e4e350c54"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC14814D-8A53-4BA1-B4E7-85395C878567}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22518,23 +22539,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF7C446-AC1E-450D-BFFA-6B39FB292973}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38100cf0-3862-4f5e-94af-ec17e31f9b9a"/>
-    <ds:schemaRef ds:uri="92ee2257-ef7d-4b2b-9cba-e98e4e350c54"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7084B3EE-4F2B-431A-999E-5DE076E5371E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>